--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_5_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>304895.2212741801</v>
+        <v>302638.1993650971</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836238</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>363.3576569421442</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>326.2097809358202</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>43.63494483399221</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,31 +859,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>167.5990957313719</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>228.0516997358835</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>74.63726593212225</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>67.00913094683273</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>156.127162662147</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>204.1186209319389</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>67.72038753189486</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>184.7297159062665</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>160.0179384138204</v>
       </c>
     </row>
     <row r="11">
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>49.14816773710403</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>126.0955237083918</v>
       </c>
     </row>
     <row r="14">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>18.93482921065075</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951295</v>
       </c>
     </row>
     <row r="17">
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>27.87379486625435</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>222.1526784153804</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292609</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247474</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734099625</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.9321526700474</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>192.7618127784248</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>194.0338686928851</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247882</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S24" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T24" t="n">
         <v>190.7165703189231</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -2530,13 +2530,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>56.25802410840433</v>
+        <v>14.20188851095022</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>144.7268717888059</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2776,10 +2776,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>94.35006384922681</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>139.527189989826</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
@@ -3013,10 +3013,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3193,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>136.9968647819693</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>56.3062397247736</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.775724893532</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102226</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>147.559217729807</v>
       </c>
       <c r="E37" t="n">
-        <v>143.298026895003</v>
+        <v>145.3777073581638</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706229</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877639</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354227</v>
+        <v>137.5099805565893</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481857</v>
+        <v>285.4667430481856</v>
       </c>
       <c r="X37" t="n">
-        <v>224.6534001006319</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636895</v>
+        <v>217.5283980636894</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124537</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873208</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H43" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572884</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124551</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3995,7 +3995,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H46" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1726.57441852865</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>1357.611901588238</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>999.3462029814875</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762914</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2113.174258592771</v>
+        <v>1332.978744901368</v>
       </c>
       <c r="X2" t="n">
-        <v>2113.174258592771</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="Y2" t="n">
-        <v>2113.174258592771</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>143.6752081057475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>143.6752081057475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>143.6752081057475</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>529.4200491697815</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="W4" t="n">
-        <v>290.5651556036578</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>290.5651556036578</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>290.5651556036578</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1626.94664591678</v>
+        <v>709.2075429298493</v>
       </c>
       <c r="C5" t="n">
-        <v>1626.94664591678</v>
+        <v>709.2075429298493</v>
       </c>
       <c r="D5" t="n">
-        <v>1268.68094731003</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.282427122408</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2390.551736153672</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2390.551736153672</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2390.551736153672</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>2390.551736153672</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>2017.085977892592</v>
+        <v>1485.946714969783</v>
       </c>
       <c r="Y5" t="n">
-        <v>1626.94664591678</v>
+        <v>1095.807382993971</v>
       </c>
     </row>
     <row r="6">
@@ -4635,25 +4635,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.806220357135</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>290.565155603658</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C7" t="n">
-        <v>121.628972675751</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406186</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406186</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="V7" t="n">
-        <v>579.9823256406186</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="W7" t="n">
-        <v>290.565155603658</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X7" t="n">
-        <v>290.565155603658</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y7" t="n">
-        <v>290.565155603658</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1550.100961840373</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>1568.629239003654</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>1210.363540396903</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>824.575287798659</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>413.5893830090515</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224083</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
         <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332394</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304457</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2233.932504454058</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>1902.869617110487</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W8" t="n">
-        <v>1550.100961840373</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="X8" t="n">
-        <v>1550.100961840373</v>
+        <v>1937.591755944065</v>
       </c>
       <c r="Y8" t="n">
-        <v>1550.100961840373</v>
+        <v>1937.591755944065</v>
       </c>
     </row>
     <row r="9">
@@ -4872,13 +4872,13 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4936,37 +4936,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>222.9427820820321</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="C10" t="n">
-        <v>222.9427820820321</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D10" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>222.9427820820321</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658211</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600566</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600566</v>
+        <v>579.9823256406187</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600566</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="T10" t="n">
-        <v>512.1163924274641</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="U10" t="n">
-        <v>222.9427820820321</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="V10" t="n">
-        <v>222.9427820820321</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="W10" t="n">
-        <v>222.9427820820321</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="X10" t="n">
-        <v>222.9427820820321</v>
+        <v>365.6939024587814</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.9427820820321</v>
+        <v>204.0596212327002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G11" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839442</v>
@@ -5042,25 +5042,25 @@
         <v>451.8458144277731</v>
       </c>
       <c r="K11" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L11" t="n">
-        <v>1971.087962216428</v>
+        <v>1650.184003770975</v>
       </c>
       <c r="M11" t="n">
-        <v>2504.619866888353</v>
+        <v>2593.249184644073</v>
       </c>
       <c r="N11" t="n">
-        <v>3484.372139114999</v>
+        <v>3573.00145687072</v>
       </c>
       <c r="O11" t="n">
-        <v>3987.344609994337</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432984</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q11" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R11" t="n">
         <v>4778.051722419721</v>
@@ -5072,19 +5072,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W11" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="12">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>540.4807149410336</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C13" t="n">
-        <v>540.4807149410336</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D13" t="n">
-        <v>390.3640755286979</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E13" t="n">
-        <v>242.4509819463048</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F13" t="n">
         <v>95.56103444839442</v>
@@ -5197,13 +5197,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J13" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K13" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442066</v>
       </c>
       <c r="L13" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M13" t="n">
         <v>1005.387693892252</v>
@@ -5221,28 +5221,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S13" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T13" t="n">
-        <v>1715.012968055668</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U13" t="n">
-        <v>1715.012968055668</v>
+        <v>1163.957642384229</v>
       </c>
       <c r="V13" t="n">
-        <v>1460.328479849781</v>
+        <v>909.2731541783418</v>
       </c>
       <c r="W13" t="n">
-        <v>1170.911309812821</v>
+        <v>619.8559841413811</v>
       </c>
       <c r="X13" t="n">
-        <v>942.9217589148034</v>
+        <v>391.8664332433638</v>
       </c>
       <c r="Y13" t="n">
-        <v>722.1291797712734</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551622</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089256</v>
@@ -5276,25 +5276,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074201</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K14" t="n">
-        <v>907.9024249011954</v>
+        <v>785.6651881176198</v>
       </c>
       <c r="L14" t="n">
-        <v>1772.42124055455</v>
+        <v>1650.184003770975</v>
       </c>
       <c r="M14" t="n">
-        <v>2750.971543384379</v>
+        <v>2265.5904835978</v>
       </c>
       <c r="N14" t="n">
-        <v>3297.750360443162</v>
+        <v>2812.369300656582</v>
       </c>
       <c r="O14" t="n">
-        <v>3800.7228313225</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679678</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q14" t="n">
         <v>4653.975400188666</v>
@@ -5306,22 +5306,22 @@
         <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="15">
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.904311342305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C16" t="n">
-        <v>260.904311342305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D16" t="n">
-        <v>260.904311342305</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G16" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
         <v>95.56103444839442</v>
@@ -5434,13 +5434,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953302</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442067</v>
       </c>
       <c r="L16" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M16" t="n">
         <v>1005.387693892252</v>
@@ -5452,7 +5452,7 @@
         <v>1646.12566951853</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q16" t="n">
         <v>1956.343466104704</v>
@@ -5461,25 +5461,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931531</v>
       </c>
       <c r="T16" t="n">
-        <v>1542.890966501056</v>
+        <v>1542.890966501057</v>
       </c>
       <c r="U16" t="n">
-        <v>1253.7880996267</v>
+        <v>1253.788099626701</v>
       </c>
       <c r="V16" t="n">
-        <v>999.1036114208131</v>
+        <v>999.1036114208136</v>
       </c>
       <c r="W16" t="n">
-        <v>709.6864413838525</v>
+        <v>709.686441383853</v>
       </c>
       <c r="X16" t="n">
-        <v>481.6968904858352</v>
+        <v>481.6968904858356</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.904311342305</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="17">
@@ -5519,19 +5519,19 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L17" t="n">
-        <v>1557.603359811481</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N17" t="n">
-        <v>3070.887536710053</v>
+        <v>3362.809616117416</v>
       </c>
       <c r="O17" t="n">
-        <v>3950.852187039507</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q17" t="n">
         <v>4719.034655862919</v>
@@ -5568,37 +5568,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193585</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320245</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
@@ -5613,7 +5613,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5622,7 +5622,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
         <v>2043.809373447819</v>
@@ -5631,13 +5631,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>584.5263537034799</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E19" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H19" t="n">
         <v>95.56103444839442</v>
@@ -5692,31 +5692,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104703</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862231</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1866.513008862231</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1866.513008862231</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1577.410141987875</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>1322.725653781988</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>1033.308483745027</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>805.31893284701</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y19" t="n">
-        <v>584.5263537034799</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="20">
@@ -5732,43 +5732,43 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G20" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H20" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I20" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277726</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>785.6651881176186</v>
       </c>
       <c r="L20" t="n">
-        <v>1390.197710791128</v>
+        <v>1650.184003770973</v>
       </c>
       <c r="M20" t="n">
-        <v>1923.729615463053</v>
+        <v>2183.715908442896</v>
       </c>
       <c r="N20" t="n">
-        <v>2877.428556330836</v>
+        <v>3044.22889502765</v>
       </c>
       <c r="O20" t="n">
-        <v>3757.393206660291</v>
+        <v>3547.201365906986</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107237</v>
+        <v>4260.556453353932</v>
       </c>
       <c r="Q20" t="n">
         <v>4719.034655862919</v>
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973169</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161899</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549386</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494831</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763681</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089862</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468538</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193584</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320233</v>
       </c>
       <c r="M21" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454339</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008793</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426847</v>
       </c>
       <c r="P21" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.46090290295</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.10246054955</v>
       </c>
       <c r="R21" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142065</v>
       </c>
       <c r="S21" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635545</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.8772203134</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447816</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216073</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487872</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282339</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517385</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>560.2704579839216</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>560.2704579839216</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E22" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839442</v>
@@ -5908,52 +5908,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442061</v>
       </c>
       <c r="L22" t="n">
-        <v>661.2306482927025</v>
+        <v>661.230648292702</v>
       </c>
       <c r="M22" t="n">
         <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598115</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518528</v>
       </c>
       <c r="P22" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952187</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104702</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.51300886223</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689056</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258582</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.827124689058</v>
+        <v>1163.957642384226</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.11822289267</v>
+        <v>909.2731541783388</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.701052855709</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X22" t="n">
-        <v>962.7115019576914</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y22" t="n">
-        <v>741.9189228141613</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="23">
@@ -5966,67 +5966,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F23" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277731</v>
       </c>
       <c r="K23" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216428</v>
       </c>
       <c r="M23" t="n">
-        <v>1770.231306037953</v>
+        <v>2949.638265046256</v>
       </c>
       <c r="N23" t="n">
-        <v>2749.9835782646</v>
+        <v>3496.417082105039</v>
       </c>
       <c r="O23" t="n">
-        <v>3629.948228594054</v>
+        <v>3999.389552984377</v>
       </c>
       <c r="P23" t="n">
-        <v>4343.303316041</v>
+        <v>4394.163919341555</v>
       </c>
       <c r="Q23" t="n">
         <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V23" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X23" t="n">
         <v>3150.95552873011</v>
@@ -6042,25 +6042,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.592772497321</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216194</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549427</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494872</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763722</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089903</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468579</v>
       </c>
       <c r="I24" t="n">
         <v>95.56103444839442</v>
@@ -6069,16 +6069,16 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N24" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O24" t="n">
         <v>2125.96131142685</v>
@@ -6087,31 +6087,31 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549554</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142069</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635549</v>
       </c>
       <c r="T24" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V24" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W24" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487876</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282343</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517389</v>
       </c>
     </row>
     <row r="25">
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>855.6340846510827</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>686.6979017231758</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>536.5812623108401</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>388.668168728447</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6145,52 +6145,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953301</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442065</v>
       </c>
       <c r="L25" t="n">
-        <v>661.2306482927024</v>
+        <v>661.2306482927029</v>
       </c>
       <c r="M25" t="n">
-        <v>1005.387693892251</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N25" t="n">
-        <v>1346.796070598116</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O25" t="n">
         <v>1646.12566951853</v>
       </c>
       <c r="P25" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.73316995219</v>
       </c>
       <c r="Q25" t="n">
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T25" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258585</v>
       </c>
       <c r="U25" t="n">
-        <v>1542.890966501056</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.890966501056</v>
+        <v>909.2731541783412</v>
       </c>
       <c r="W25" t="n">
-        <v>1486.06467952287</v>
+        <v>894.9278122480885</v>
       </c>
       <c r="X25" t="n">
-        <v>1258.075128624853</v>
+        <v>666.9382613500711</v>
       </c>
       <c r="Y25" t="n">
-        <v>1037.282549481322</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C26" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6224,28 +6224,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>416.3606924710451</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>750.1800661608916</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L26" t="n">
-        <v>1614.698881814246</v>
+        <v>1390.197710791128</v>
       </c>
       <c r="M26" t="n">
-        <v>2593.249184644075</v>
+        <v>1923.729615463052</v>
       </c>
       <c r="N26" t="n">
-        <v>3573.001456870722</v>
+        <v>2812.369300656583</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6260,16 +6260,16 @@
         <v>4208.252829604875</v>
       </c>
       <c r="V26" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W26" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X26" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y26" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6279,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973185</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161915</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549404</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494848</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763699</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6303,52 +6303,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390116</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O27" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.56840828234</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>393.5907674431232</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431232</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6385,10 +6385,10 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
-        <v>661.2306482927025</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M28" t="n">
         <v>1005.387693892251</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T28" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U28" t="n">
-        <v>1253.7880996267</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>999.1036114208127</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W28" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X28" t="n">
-        <v>614.3833465866533</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y28" t="n">
-        <v>393.5907674431232</v>
+        <v>391.8664332433625</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6461,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>702.9183254305503</v>
       </c>
       <c r="L29" t="n">
-        <v>1650.184003770974</v>
+        <v>1153.952538678959</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.715908442899</v>
+        <v>1687.484443350884</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.758180993045</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3800.7228313225</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161933</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,13 +6595,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>562.5269503710301</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C31" t="n">
-        <v>393.5907674431232</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D31" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
         <v>95.56103444839442</v>
@@ -6625,7 +6625,7 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927028</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M31" t="n">
         <v>1005.387693892252</v>
@@ -6643,28 +6643,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U31" t="n">
-        <v>1475.554715057174</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V31" t="n">
-        <v>1220.870226851287</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W31" t="n">
-        <v>931.4530568143263</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X31" t="n">
-        <v>703.4635059163089</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y31" t="n">
-        <v>703.4635059163089</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6698,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1069.293752345675</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2047.844055175504</v>
+        <v>2504.619866888352</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903276</v>
+        <v>3130.95002174635</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232731</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679677</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q32" t="n">
         <v>4653.975400188665</v>
@@ -6753,37 +6753,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089896</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468572</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6795,22 +6795,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>656.6259356382592</v>
+        <v>402.87788887324</v>
       </c>
       <c r="C34" t="n">
-        <v>487.6897527103523</v>
+        <v>233.9417059453331</v>
       </c>
       <c r="D34" t="n">
-        <v>487.6897527103524</v>
+        <v>233.9417059453331</v>
       </c>
       <c r="E34" t="n">
-        <v>339.7766591279592</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6880,28 +6880,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="T34" t="n">
-        <v>1899.46847648372</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="U34" t="n">
-        <v>1610.365609609364</v>
+        <v>1577.410141987875</v>
       </c>
       <c r="V34" t="n">
-        <v>1355.681121403477</v>
+        <v>1322.725653781988</v>
       </c>
       <c r="W34" t="n">
-        <v>1066.263951366516</v>
+        <v>1033.308483745027</v>
       </c>
       <c r="X34" t="n">
-        <v>838.2744004684989</v>
+        <v>805.3189328470098</v>
       </c>
       <c r="Y34" t="n">
-        <v>838.2744004684989</v>
+        <v>584.5263537034797</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H35" t="n">
         <v>137.5579332089257</v>
@@ -6938,22 +6938,22 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>1002.806306216376</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1453.840519464784</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N35" t="n">
-        <v>2812.369300656583</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O35" t="n">
-        <v>3692.333950986038</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4405.689038432984</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
         <v>4653.975400188666</v>
@@ -6962,25 +6962,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="36">
@@ -6990,25 +6990,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
@@ -7020,7 +7020,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7032,22 +7032,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
         <v>1808.657265216076</v>
@@ -7056,10 +7056,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>574.8116866462212</v>
+        <v>391.4569183756378</v>
       </c>
       <c r="C37" t="n">
-        <v>406.942428252057</v>
+        <v>391.4569183756378</v>
       </c>
       <c r="D37" t="n">
-        <v>406.942428252057</v>
+        <v>242.4072034970447</v>
       </c>
       <c r="E37" t="n">
-        <v>262.1969465399328</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>262.1969465399328</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
         <v>95.56103444839442</v>
@@ -7093,25 +7093,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308512</v>
+        <v>141.7293596308514</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152487</v>
+        <v>346.7622353152491</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992662</v>
+        <v>664.3677264992665</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834336</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275722</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
         <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100837</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
         <v>1964.709007988874</v>
@@ -7120,25 +7120,25 @@
         <v>1964.709007988874</v>
       </c>
       <c r="S37" t="n">
-        <v>1964.709007988874</v>
+        <v>1774.090048349443</v>
       </c>
       <c r="T37" t="n">
-        <v>1744.009317092142</v>
+        <v>1553.390357452712</v>
       </c>
       <c r="U37" t="n">
-        <v>1744.009317092142</v>
+        <v>1265.354415112098</v>
       </c>
       <c r="V37" t="n">
-        <v>1490.391753419998</v>
+        <v>1126.455444852917</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.04150791678</v>
+        <v>838.1051993496995</v>
       </c>
       <c r="X37" t="n">
-        <v>975.1188815525056</v>
+        <v>611.1825729854251</v>
       </c>
       <c r="Y37" t="n">
-        <v>755.3932269427181</v>
+        <v>391.4569183756378</v>
       </c>
     </row>
     <row r="38">
@@ -7157,43 +7157,43 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1650.184003770974</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.715908442899</v>
+        <v>2006.065164440651</v>
       </c>
       <c r="N38" t="n">
-        <v>3163.468180669545</v>
+        <v>2985.817436667298</v>
       </c>
       <c r="O38" t="n">
-        <v>4043.432830999</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P38" t="n">
-        <v>4438.207197356178</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4686.49355911186</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7227,64 +7227,64 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G39" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R39" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S39" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T39" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7293,10 +7293,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="40">
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215052</v>
+        <v>788.5151678215059</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416713</v>
+        <v>667.0286178416723</v>
       </c>
       <c r="D40" t="n">
-        <v>564.361611377409</v>
+        <v>564.3616113774099</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932523</v>
+        <v>364.457836193253</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160445</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H40" t="n">
-        <v>145.4370786819756</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I40" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>187.1890521477366</v>
+        <v>187.1890521477367</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490196</v>
+        <v>437.6816203490197</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499225</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,7 +7351,7 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036722</v>
       </c>
     </row>
     <row r="41">
@@ -7388,19 +7388,19 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,19 +7409,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L41" t="n">
-        <v>1076.848340014667</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M41" t="n">
-        <v>2055.398642844495</v>
+        <v>2183.715908442899</v>
       </c>
       <c r="N41" t="n">
-        <v>2602.177459903277</v>
+        <v>2730.494725501681</v>
       </c>
       <c r="O41" t="n">
         <v>3482.142110232732</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7464,19 +7464,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7491,10 +7491,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7530,10 +7530,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215058</v>
       </c>
       <c r="C43" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416721</v>
       </c>
       <c r="D43" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774098</v>
       </c>
       <c r="E43" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430901</v>
       </c>
       <c r="F43" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932531</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160454</v>
       </c>
       <c r="H43" t="n">
         <v>145.4370786819757</v>
@@ -7567,10 +7567,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
         <v>800.7468040499225</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123956</v>
+        <v>2328.386548123957</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604457</v>
+        <v>2141.769472604458</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7612,7 +7612,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036721</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7646,19 +7646,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K44" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L44" t="n">
-        <v>1453.840519464784</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M44" t="n">
-        <v>2432.390822294613</v>
+        <v>2016.310259422545</v>
       </c>
       <c r="N44" t="n">
-        <v>2979.169639353395</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O44" t="n">
         <v>3482.142110232732</v>
@@ -7673,25 +7673,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7701,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468565</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7743,22 +7743,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R45" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S45" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T45" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7767,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215053</v>
+        <v>788.5151678215051</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416717</v>
+        <v>667.0286178416715</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774093</v>
+        <v>564.3616113774091</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430895</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160446</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819758</v>
+        <v>145.4370786819757</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
@@ -7810,7 +7810,7 @@
         <v>437.6816203490196</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499223</v>
+        <v>800.7468040499224</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036718</v>
+        <v>922.7139997036714</v>
       </c>
     </row>
   </sheetData>
@@ -8064,7 +8064,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,19 +8292,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270189</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9238900028829</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8690,13 +8690,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>413.6699759607817</v>
       </c>
       <c r="N11" t="n">
         <v>437.3469244119842</v>
@@ -8705,13 +8705,13 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>23.80814351663486</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>292.5685715191199</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>82.70159106555582</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9167,22 +9167,22 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>314.5564971416987</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>126.3855966773243</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>411.0304280899003</v>
+        <v>316.9032015413856</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2.749800387391588e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9638,25 +9638,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>128.7323010770054</v>
+        <v>77.35795430876831</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>133.2530576400255</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>345.3140082169181</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>85.51392558917576</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>192.1853085771352</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>7.630896635343674</v>
+        <v>80.35488666587435</v>
       </c>
       <c r="O32" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10586,25 +10586,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>219.3344627260164</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>176.2173930448432</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>407.3126337606582</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>32.86979469803877</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,22 +11057,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>7.630896635344868</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>251.1867816683983</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11294,22 +11294,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>219.3344627260163</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>39.48321557772738</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>170.4007815390652</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>92.48912964370302</v>
       </c>
     </row>
     <row r="14">
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23659,7 +23659,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>127.4991334359184</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,7 +23668,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983806</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>16.14213605696528</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>139.3730262323735</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23899,13 +23899,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>3.556976973656788</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983815</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>59.37583054540318</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>92.48912964370595</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>230.2649742281867</v>
+        <v>272.3211098256408</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>35.10510839313136</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24664,10 +24664,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>131.3595915398103</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>40.30479019211131</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>46.61145443660394</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,10 +24901,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,10 +25081,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>9.437097864599878</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25093,7 +25093,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25120,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>163.2427095513956</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>147.5592177298071</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>2.079680463160918</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.364792734526</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259155</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143281</v>
+        <v>95.29616512143269</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25357,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164205</v>
+        <v>87.87589738164193</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430366</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172076</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>113.5714074788333</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1069622.313640015</v>
+        <v>1069622.313640016</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1069622.313640015</v>
+        <v>1069622.313640016</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1105235.923459685</v>
+        <v>1105235.923459686</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923206</v>
       </c>
       <c r="E2" t="n">
-        <v>337519.5188539358</v>
+        <v>337519.5188539359</v>
       </c>
       <c r="F2" t="n">
-        <v>337519.5188539361</v>
+        <v>337519.5188539359</v>
       </c>
       <c r="G2" t="n">
-        <v>337519.5188539358</v>
+        <v>337519.5188539356</v>
       </c>
       <c r="H2" t="n">
         <v>337519.5188539358</v>
       </c>
       <c r="I2" t="n">
-        <v>337519.5188539358</v>
+        <v>337519.5188539359</v>
       </c>
       <c r="J2" t="n">
         <v>337519.5188539356</v>
       </c>
       <c r="K2" t="n">
-        <v>337519.5188539357</v>
+        <v>337519.5188539358</v>
       </c>
       <c r="L2" t="n">
-        <v>337519.5188539356</v>
+        <v>337519.5188539358</v>
       </c>
       <c r="M2" t="n">
-        <v>337776.3749589497</v>
+        <v>337776.3749589499</v>
       </c>
       <c r="N2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923202</v>
       </c>
       <c r="O2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="P2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923203</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
         <v>727377.4139934068</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.026931840897305e-09</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925924</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.319069669</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414982</v>
+        <v>36735.10506414973</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
         <v>183348.6868571279</v>
@@ -26433,31 +26433,31 @@
         <v>18148.49231918994</v>
       </c>
       <c r="H4" t="n">
+        <v>18148.49231919</v>
+      </c>
+      <c r="I4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="J4" t="n">
+        <v>18148.49231918993</v>
+      </c>
+      <c r="K4" t="n">
         <v>18148.49231918994</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918993</v>
       </c>
       <c r="L4" t="n">
         <v>18148.49231918993</v>
       </c>
       <c r="M4" t="n">
-        <v>18496.05294811449</v>
+        <v>18496.05294811455</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740897</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740895</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.65329740899</v>
+        <v>33605.65329740901</v>
       </c>
     </row>
     <row r="5">
@@ -26470,7 +26470,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340948</v>
@@ -26485,13 +26485,13 @@
         <v>96383.51825371366</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
@@ -26500,7 +26500,7 @@
         <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955459</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-507232.8919427615</v>
+        <v>-507232.8919427614</v>
       </c>
       <c r="C6" t="n">
-        <v>82734.98727178306</v>
+        <v>82734.98727178309</v>
       </c>
       <c r="D6" t="n">
-        <v>82734.98727178312</v>
+        <v>82734.98727178294</v>
       </c>
       <c r="E6" t="n">
-        <v>-504389.9057123745</v>
+        <v>-504457.1012026002</v>
       </c>
       <c r="F6" t="n">
-        <v>222987.5082810325</v>
+        <v>222920.3127908066</v>
       </c>
       <c r="G6" t="n">
-        <v>222987.5082810326</v>
+        <v>222920.3127908066</v>
       </c>
       <c r="H6" t="n">
-        <v>222987.5082810321</v>
+        <v>222920.312790807</v>
       </c>
       <c r="I6" t="n">
-        <v>222987.5082810321</v>
+        <v>222920.3127908055</v>
       </c>
       <c r="J6" t="n">
-        <v>46564.28908843912</v>
+        <v>46497.09359821384</v>
       </c>
       <c r="K6" t="n">
-        <v>222987.5082810321</v>
+        <v>222920.3127908062</v>
       </c>
       <c r="L6" t="n">
-        <v>222987.5082810321</v>
+        <v>222920.3127908064</v>
       </c>
       <c r="M6" t="n">
-        <v>92320.6863616116</v>
+        <v>92255.00178965059</v>
       </c>
       <c r="N6" t="n">
-        <v>178269.3228166595</v>
+        <v>178269.3228166594</v>
       </c>
       <c r="O6" t="n">
-        <v>215004.4278808093</v>
+        <v>215004.4278808092</v>
       </c>
       <c r="P6" t="n">
-        <v>215004.4278808094</v>
+        <v>215004.4278808092</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="N2" t="n">
         <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="3">
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170868</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170869</v>
@@ -26753,10 +26753,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593297</v>
       </c>
       <c r="I3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="J3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545555</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545557</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018728</v>
+        <v>45.91888133018716</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
         <v>712.0330363762118</v>
@@ -26978,13 +26978,13 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-4.155276788245512e-13</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503748</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503743</v>
+        <v>520.2256578503745</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>18.57271313011762</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
         <v>400</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,19 +27430,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>23.03118778159279</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27546,7 +27546,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>91.33067695834602</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,31 +27579,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>57.43600972671234</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>126.6313418847994</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>141.8110544255355</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27774,10 +27774,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>81.60634207137963</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787186</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>209.6655490888561</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>183.5037799763944</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28023,7 +28023,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>40.30538955181774</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>58.5667149382744</v>
       </c>
     </row>
     <row r="11">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405292</v>
+        <v>1.0562552884054</v>
       </c>
     </row>
     <row r="38">
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-5.115907697472721e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>-1.06581410364015e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859258</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681595</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844664</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974798</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953986</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003806</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623187</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574988</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095017</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099053</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746408</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781686</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563567</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806942</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451119</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345275</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502564</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798529</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752251</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353154</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138792</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233471</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837919</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970245</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002923</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987484</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.536594090554</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238312</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.44815837589849</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462214</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430536</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.47215759311878</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742014</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702022</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098818</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.049502431643</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883113</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023085999</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802167</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895879</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712208</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553033</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112289</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I23" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J23" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T23" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U23" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H24" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R24" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,43 +32859,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H25" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J25" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K25" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M25" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P25" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q25" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U25" t="n">
         <v>0.1071911508780295</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33752,7 +33752,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
@@ -33992,7 +33992,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>359.8836161407865</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265655</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L11" t="n">
         <v>873.2513289427828</v>
       </c>
       <c r="M11" t="n">
-        <v>538.921115830227</v>
+        <v>952.5910917910087</v>
       </c>
       <c r="N11" t="n">
         <v>989.6487598248959</v>
@@ -35425,13 +35425,13 @@
         <v>508.0530008882195</v>
       </c>
       <c r="P11" t="n">
-        <v>422.5701297360069</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q11" t="n">
         <v>250.7943048037197</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306637</v>
       </c>
       <c r="K13" t="n">
         <v>206.0476595443197</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687127</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K14" t="n">
-        <v>629.7598580745206</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L14" t="n">
         <v>873.2513289427828</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230595</v>
+        <v>621.6227068957828</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129117</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882195</v>
+        <v>888.8531821509648</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193721</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q14" t="n">
-        <v>463.1092954636244</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R14" t="n">
         <v>125.3296184152073</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306631</v>
       </c>
       <c r="K16" t="n">
         <v>206.0476595443197</v>
@@ -35887,22 +35887,22 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>866.8583325546102</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>525.1475828966961</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>59.61319854222478</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.883616140786</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427819</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302261</v>
       </c>
       <c r="N20" t="n">
-        <v>963.3322635028118</v>
+        <v>869.2050369542964</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882185</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.560694390854</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636238</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222455</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609564</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134005</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013287</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004586</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525801</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859621</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127269</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306611</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443194</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701979</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934836</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675398</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226395</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451102</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789351</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>359.8836161407865</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265655</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427828</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230595</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O23" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q23" t="n">
-        <v>379.5266058807248</v>
+        <v>328.152259112488</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N25" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P25" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>324.040058608738</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>897.6158436298293</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>422.7052121445763</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
-        <v>744.4871439900467</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K31" t="n">
         <v>206.0476595443196</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>559.9327320482552</v>
+        <v>632.6567220787858</v>
       </c>
       <c r="O32" t="n">
         <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37306,25 +37306,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>556.5257492814169</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N35" t="n">
-        <v>728.5192284577547</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R35" t="n">
         <v>125.3296184152072</v>
@@ -37400,7 +37400,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147152</v>
+        <v>46.63467190147163</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327248</v>
+        <v>207.103914832725</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586034</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.6896346818891</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559454</v>
+        <v>345.9132014559455</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110451</v>
+        <v>303.4093855110452</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335157</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.45049382629895</v>
+        <v>79.45049382629905</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>946.2337495908849</v>
       </c>
       <c r="N38" t="n">
         <v>989.6487598248956</v>
@@ -37561,10 +37561,10 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>92.48299324026355</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L41" t="n">
-        <v>463.221011027677</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>759.2397825566175</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165881</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L43" t="n">
         <v>366.7325087887907</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>674.9245771183485</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>591.7850509906386</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
